--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,18 +46,18 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>however</t>
   </si>
   <si>
     <t>returned</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -79,238 +79,226 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>good</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>far</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>clean</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>fast</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>big</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>used</t>
@@ -677,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -764,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -788,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -796,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4">
-        <v>0.8840579710144928</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -838,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -846,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4150943396226415</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3953488372093023</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8699690402476781</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="M6">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -938,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3232323232323233</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.7272727272727273</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2444444444444444</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7254237288135593</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1038,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1891891891891892</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.70995670995671</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="L9">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,13 +1084,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.6875</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1110,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.6813804173354735</v>
+        <v>0.6796536796536796</v>
       </c>
       <c r="L11">
-        <v>849</v>
+        <v>157</v>
       </c>
       <c r="M11">
-        <v>849</v>
+        <v>157</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>397</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1136,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6628571428571428</v>
+        <v>0.6693418940609952</v>
       </c>
       <c r="L12">
-        <v>116</v>
+        <v>834</v>
       </c>
       <c r="M12">
-        <v>116</v>
+        <v>834</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>59</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1162,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6575342465753424</v>
+        <v>0.6685714285714286</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1188,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1226,13 +1214,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,13 +1240,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6304347826086957</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1270,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1278,13 +1266,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6140350877192983</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1296,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1304,13 +1292,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.5961538461538461</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L18">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1322,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1330,13 +1318,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.5909090909090909</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1348,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1356,13 +1344,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5633802816901409</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1374,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1382,13 +1370,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5625</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1400,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1408,13 +1396,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5389221556886228</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M22">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1426,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1434,13 +1422,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5299145299145299</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L23">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1452,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1460,13 +1448,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.52</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1478,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1486,13 +1474,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5138888888888888</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1504,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1512,13 +1500,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5112781954887218</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L26">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1530,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1538,13 +1526,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4939759036144578</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1556,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1564,13 +1552,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4769230769230769</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1582,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1590,13 +1578,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4698795180722892</v>
+        <v>0.484375</v>
       </c>
       <c r="L29">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1608,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1616,25 +1604,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4603174603174603</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1642,13 +1630,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4558823529411765</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1660,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1668,13 +1656,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4426229508196721</v>
+        <v>0.443579766536965</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1686,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1694,25 +1682,25 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4373464373464374</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L33">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>229</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1720,13 +1708,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4313725490196079</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1738,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1746,13 +1734,13 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.4153846153846154</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1764,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1772,13 +1760,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.4085603112840467</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L36">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1790,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>152</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1798,13 +1786,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3712328767123287</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L37">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1816,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>459</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1824,13 +1812,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3709677419354839</v>
+        <v>0.4</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1842,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1850,13 +1838,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3684210526315789</v>
+        <v>0.39</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1868,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1876,13 +1864,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3580246913580247</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1894,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1902,13 +1890,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.3397129186602871</v>
+        <v>0.3767123287671233</v>
       </c>
       <c r="L41">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="M41">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1920,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>138</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1928,13 +1916,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.3383458646616541</v>
+        <v>0.3492822966507177</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1946,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1954,13 +1942,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.3333333333333333</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1972,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1980,13 +1968,13 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.3143164693218515</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L44">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>292</v>
+        <v>47</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1998,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>637</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2006,13 +1994,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.304635761589404</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L45">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2024,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2032,13 +2020,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.297029702970297</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2050,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2058,13 +2046,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2877697841726619</v>
+        <v>0.3153928955866523</v>
       </c>
       <c r="L47">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2076,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>99</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2084,13 +2072,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2794701986754967</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L48">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2102,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>544</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2110,13 +2098,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2727272727272727</v>
+        <v>0.2852664576802508</v>
       </c>
       <c r="L49">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M49">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2128,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2136,13 +2124,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2714468629961588</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L50">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2151,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>569</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2162,13 +2150,13 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.2702702702702703</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2180,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2188,13 +2176,13 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.2684563758389262</v>
+        <v>0.2754966887417218</v>
       </c>
       <c r="L52">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="M52">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2206,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>109</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2214,25 +2202,25 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.2363636363636364</v>
+        <v>0.2698209718670077</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="M53">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>84</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2240,13 +2228,13 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.2295081967213115</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2258,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2266,13 +2254,13 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.2208588957055215</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L55">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2284,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2292,25 +2280,25 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.22</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>78</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2318,25 +2306,25 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.219047619047619</v>
+        <v>0.2135135135135135</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>82</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2344,25 +2332,25 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.217983651226158</v>
+        <v>0.2</v>
       </c>
       <c r="L58">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M58">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>287</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2370,25 +2358,25 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.2142857142857143</v>
+        <v>0.1974789915966386</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="N59">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>88</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2396,13 +2384,13 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.2083333333333333</v>
+        <v>0.1922141119221411</v>
       </c>
       <c r="L60">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="M60">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2414,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2422,13 +2410,13 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.2052505966587112</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="L61">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M61">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2440,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>333</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2448,13 +2436,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.201219512195122</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L62">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M62">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2466,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2474,13 +2462,13 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.1954545454545455</v>
+        <v>0.1766109785202864</v>
       </c>
       <c r="L63">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="M63">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2492,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2500,25 +2488,25 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.1846153846153846</v>
+        <v>0.1753731343283582</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M64">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>106</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2526,13 +2514,13 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.1751824817518248</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="L65">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2544,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>339</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2552,25 +2540,25 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.1724137931034483</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L66">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>240</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2578,25 +2566,25 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.1633663366336634</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L67">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>169</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2604,25 +2592,25 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.1608391608391608</v>
+        <v>0.1592592592592593</v>
       </c>
       <c r="L68">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M68">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>120</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2630,25 +2618,25 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.1596638655462185</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L69">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2656,25 +2644,25 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.1549815498154982</v>
+        <v>0.1482758620689655</v>
       </c>
       <c r="L70">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M70">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2682,13 +2670,13 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.1502732240437158</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L71">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M71">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2700,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2708,25 +2696,25 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.1454545454545454</v>
+        <v>0.1417004048582996</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>141</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2734,25 +2722,25 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.141025641025641</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L73">
         <v>22</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2760,13 +2748,13 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.1256038647342995</v>
+        <v>0.125</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N74">
         <v>0.96</v>
@@ -2778,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2786,25 +2774,25 @@
         <v>88</v>
       </c>
       <c r="K75">
-        <v>0.125</v>
+        <v>0.1119081779053085</v>
       </c>
       <c r="L75">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="N75">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O75">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>154</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2812,13 +2800,13 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>0.1206735266604303</v>
+        <v>0.1065420560747664</v>
       </c>
       <c r="L76">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="M76">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="N76">
         <v>0.98</v>
@@ -2830,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>940</v>
+        <v>956</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2838,13 +2826,13 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1189591078066914</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="L77">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M77">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N77">
         <v>0.97</v>
@@ -2856,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>237</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2864,25 +2852,25 @@
         <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1169354838709677</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="L78">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M78">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>219</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2890,25 +2878,25 @@
         <v>92</v>
       </c>
       <c r="K79">
-        <v>0.1047345767575323</v>
+        <v>0.07591623036649214</v>
       </c>
       <c r="L79">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="M79">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="N79">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="O79">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>624</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2916,25 +2904,25 @@
         <v>93</v>
       </c>
       <c r="K80">
-        <v>0.09191176470588236</v>
+        <v>0.07263922518159806</v>
       </c>
       <c r="L80">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>247</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2942,25 +2930,25 @@
         <v>94</v>
       </c>
       <c r="K81">
-        <v>0.08951406649616368</v>
+        <v>0.07024029574861368</v>
       </c>
       <c r="L81">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M81">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N81">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O81">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>356</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2968,25 +2956,25 @@
         <v>95</v>
       </c>
       <c r="K82">
-        <v>0.08782608695652173</v>
+        <v>0.05029013539651837</v>
       </c>
       <c r="L82">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="M82">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0.16</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>1049</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2994,129 +2982,25 @@
         <v>96</v>
       </c>
       <c r="K83">
-        <v>0.08317929759704251</v>
+        <v>0.04881266490765172</v>
       </c>
       <c r="L83">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M83">
         <v>46</v>
       </c>
       <c r="N83">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="O83">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K84">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="L84">
-        <v>26</v>
-      </c>
-      <c r="M84">
-        <v>27</v>
-      </c>
-      <c r="N84">
-        <v>0.96</v>
-      </c>
-      <c r="O84">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K85">
-        <v>0.06067961165048544</v>
-      </c>
-      <c r="L85">
-        <v>25</v>
-      </c>
-      <c r="M85">
-        <v>27</v>
-      </c>
-      <c r="N85">
-        <v>0.93</v>
-      </c>
-      <c r="O85">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K86">
-        <v>0.05973025048169557</v>
-      </c>
-      <c r="L86">
-        <v>31</v>
-      </c>
-      <c r="M86">
-        <v>34</v>
-      </c>
-      <c r="N86">
-        <v>0.91</v>
-      </c>
-      <c r="O86">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K87">
-        <v>0.0451527224435591</v>
-      </c>
-      <c r="L87">
-        <v>34</v>
-      </c>
-      <c r="M87">
-        <v>48</v>
-      </c>
-      <c r="N87">
-        <v>0.71</v>
-      </c>
-      <c r="O87">
-        <v>0.29</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
